--- a/survey-resources/data-xls/time-use-survey-form-v9.xlsx
+++ b/survey-resources/data-xls/time-use-survey-form-v9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="183">
   <si>
     <t>type</t>
   </si>
@@ -45,9 +45,6 @@
     <t>relevant</t>
   </si>
   <si>
-    <t>calculation</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -75,18 +72,15 @@
     <t>date</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Start_date</t>
+  </si>
+  <si>
+    <t>Start Date</t>
   </si>
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Change the date using the date picker to change this.</t>
-  </si>
-  <si>
-    <t>Cambie la fecha usando el selector de fecha para cambiar esto.</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -102,6 +96,12 @@
     <t>Hora de inicio</t>
   </si>
   <si>
+    <t>End_date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
     <t>End_time</t>
   </si>
   <si>
@@ -228,15 +228,6 @@
     <t>end_group</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>__version__</t>
-  </si>
-  <si>
-    <t>'vFzDExGncnZy3kyDzwkdGR'</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -486,6 +477,15 @@
     <t>Póngase en contacto con amigos/familiares en una llamada de voz o videollamada</t>
   </si>
   <si>
+    <t>reading_books</t>
+  </si>
+  <si>
+    <t>Reading books</t>
+  </si>
+  <si>
+    <t>Libros de lectura</t>
+  </si>
+  <si>
     <t>ky87e29</t>
   </si>
   <si>
@@ -543,7 +543,7 @@
     <t>Asistir a servicios religiosos</t>
   </si>
   <si>
-    <t>form_title</t>
+    <t>id_string</t>
   </si>
   <si>
     <t>style</t>
@@ -555,7 +555,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>Time-use survey</t>
+    <t>time_use_survey_form_v9_1</t>
   </si>
   <si>
     <t>pages</t>
@@ -896,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,52 +930,49 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -983,213 +980,213 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1204,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1221,27 +1218,27 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -1249,10 +1246,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1263,10 +1260,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -1277,10 +1274,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
@@ -1291,338 +1288,338 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
         <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
         <v>105</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
         <v>115</v>
-      </c>
-      <c r="B17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
         <v>134</v>
-      </c>
-      <c r="B23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1630,13 +1627,13 @@
         <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1644,13 +1641,13 @@
         <v>156</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1658,13 +1655,13 @@
         <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1672,13 +1669,13 @@
         <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1686,12 +1683,26 @@
         <v>156</v>
       </c>
       <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="s">
         <v>172</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>173</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>174</v>
       </c>
     </row>
